--- a/生命周期数据到3月4日中午为止该部分基本完成.xlsx
+++ b/生命周期数据到3月4日中午为止该部分基本完成.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\毕业用文件夹\继续努力\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23720" windowHeight="9650" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
   <si>
     <t>序号</t>
   </si>
@@ -623,11 +618,6 @@
   </si>
   <si>
     <t>1.基线的标识;2.基线的受控配置项库;3.基线建立的时间;4.与其他基线间的衍生关系。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.数据项标识;2.创建时间;3.问题描述
-4.变更影响分析;5.受影响的配置项或数据元的标识;6.软件发生错误的起始配置项（若是需求变更则是被变更的需求的标识）;7.建议的变更和行动 ;8.问题报告提出者</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -686,13 +676,22 @@
   <si>
     <t>已软件配置状态纪实报告的形式，应包括：
 1.配置项标识;2.基线列表;3.配置项列表;4.问题报告列表;5.变更申请、审核、评审记录列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题报告/需求变更报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据项标识;2.创建时间;3.问题描述
+4.变更影响分析;5.受影响的配置项或数据元的标识;6.软件发生错误的起始配置项（若是需求变更则是被变更的需求的标识）;7.建议的变更和行动 ;8.问题报告或需求变更提出者</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1098,7 +1097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,7 +1132,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1348,16 +1347,16 @@
       <selection sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="6" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="6" width="20.875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="89.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="33"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -1426,7 +1425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="20"/>
       <c r="C5" s="8" t="s">
@@ -1438,7 +1437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33"/>
       <c r="B6" s="20"/>
       <c r="C6" s="8" t="s">
@@ -1450,7 +1449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="20"/>
       <c r="C7" s="8" t="s">
@@ -1459,7 +1458,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>41</v>
@@ -1470,7 +1469,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
@@ -1479,7 +1478,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A10" s="33"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
@@ -1488,7 +1487,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="33"/>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
@@ -1497,7 +1496,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
@@ -1508,7 +1507,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
@@ -1517,7 +1516,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
@@ -1526,7 +1525,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="33"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
@@ -1535,7 +1534,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A16" s="33"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
@@ -1546,7 +1545,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
@@ -1555,7 +1554,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
@@ -1564,7 +1563,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
@@ -1573,7 +1572,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="33"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
@@ -1582,7 +1581,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A21" s="33"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
@@ -1591,7 +1590,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -1602,7 +1601,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="17" t="s">
         <v>62</v>
@@ -1613,7 +1612,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
         <v>42</v>
@@ -1628,7 +1627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="5" t="s">
         <v>39</v>
@@ -1656,97 +1655,97 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B28" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D30" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:5" ht="28" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D32" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D33" s="16" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="4:5" ht="28" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D34" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="4:5" ht="28" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D35" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D36" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="4:5" ht="28" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D37" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E37" s="18"/>
     </row>
-    <row r="39" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="4:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D41" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="4:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D43" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="18"/>
     </row>
-    <row r="44" spans="4:5" ht="28" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:5" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D44" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D45" s="16" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="4:5" ht="28" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:5" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D46" s="16" t="s">
         <v>57</v>
       </c>
@@ -1772,7 +1771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1785,7 +1784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1796,21 +1795,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="7"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="7"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="102" x14ac:dyDescent="0.15">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>89</v>
@@ -1841,7 +1840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="39.75" x14ac:dyDescent="0.15">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1858,22 +1857,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.15">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D4" s="38"/>
       <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="76.5" x14ac:dyDescent="0.15">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -1881,14 +1880,14 @@
         <v>41</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="38"/>
       <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -1896,14 +1895,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="38"/>
       <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -1911,11 +1910,11 @@
         <v>34</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="38"/>
     </row>
-    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -1923,11 +1922,11 @@
         <v>75</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="39"/>
     </row>
-    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23">
         <v>10</v>
       </c>
@@ -1935,13 +1934,13 @@
         <v>70</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="23">
         <v>11</v>
       </c>
@@ -1951,7 +1950,7 @@
       <c r="C10" s="40"/>
       <c r="D10" s="41"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="23">
         <v>13</v>
       </c>
@@ -1961,21 +1960,21 @@
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="23">
         <v>14</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>98</v>
-      </c>
       <c r="D12" s="41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="23">
         <v>15</v>
       </c>
@@ -1986,7 +1985,7 @@
       <c r="D13" s="41"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="23">
         <v>16</v>
       </c>
@@ -1996,7 +1995,7 @@
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="23">
         <v>17</v>
       </c>
@@ -2006,7 +2005,7 @@
       <c r="C15" s="40"/>
       <c r="D15" s="41"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="23">
         <v>18</v>
       </c>
@@ -2016,7 +2015,7 @@
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
     </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A17" s="23">
         <v>19</v>
       </c>
@@ -2024,13 +2023,13 @@
         <v>82</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A18" s="23">
         <v>20</v>
       </c>
@@ -2040,7 +2039,7 @@
       <c r="C18" s="43"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A19" s="23">
         <v>23</v>
       </c>
@@ -2050,7 +2049,7 @@
       <c r="C19" s="43"/>
       <c r="D19" s="35"/>
     </row>
-    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A20" s="23">
         <v>24</v>
       </c>
@@ -2060,7 +2059,7 @@
       <c r="C20" s="43"/>
       <c r="D20" s="35"/>
     </row>
-    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A21" s="23">
         <v>26</v>
       </c>
@@ -2070,7 +2069,7 @@
       <c r="C21" s="43"/>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A22" s="23">
         <v>27</v>
       </c>
@@ -2080,7 +2079,7 @@
       <c r="C22" s="43"/>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A23" s="23">
         <v>29</v>
       </c>
@@ -2090,7 +2089,7 @@
       <c r="C23" s="44"/>
       <c r="D23" s="36"/>
     </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A24" s="23">
         <v>30</v>
       </c>
@@ -2098,19 +2097,19 @@
         <v>76</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.1" x14ac:dyDescent="0.25">
       <c r="D25" s="27"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="14.1" x14ac:dyDescent="0.25">
       <c r="D26" s="27"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="14.1" x14ac:dyDescent="0.25">
       <c r="D27" s="27"/>
     </row>
   </sheetData>
